--- a/tests/0TestInput/ServiceTestInput/CompleteBaangtWebdemo_else_error.xlsx
+++ b/tests/0TestInput/ServiceTestInput/CompleteBaangtWebdemo_else_error.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="3195" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="6060" yWindow="3195" windowWidth="24240" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestStepExecution" sheetId="1" r:id="rId1"/>
@@ -240,9 +240,6 @@
     <t>RemoteReadExample</t>
   </si>
   <si>
-    <t>RRD_[CustomerData,*,[Stage:[$(Stage)],Country:[$(Country)],IsActive:[X]]]</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>if condition true</t>
+  </si>
+  <si>
+    <t>RRE_[tests/0TestInput/ServiceTestInput/CompleteBaangtWebdemo_else.xlsx,CustomerData,*,[Stage:[$(Stage)],Country:[$(Country)],IsActive:[X]]]</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -865,7 +865,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -909,12 +909,12 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -953,7 +953,7 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -975,7 +975,7 @@
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -989,7 +989,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1016,7 +1016,7 @@
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1077,7 +1077,7 @@
         <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1090,7 +1090,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1104,7 +1104,7 @@
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1131,7 +1131,7 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1163,7 +1163,7 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1188,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1232,7 +1232,7 @@
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -1244,7 +1244,7 @@
         <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -1255,7 +1255,7 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -1264,7 +1264,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
@@ -1275,7 +1275,7 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
@@ -1287,7 +1287,7 @@
         <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
         <v>47</v>
@@ -1298,7 +1298,7 @@
         <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -1310,7 +1310,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -1321,7 +1321,7 @@
         <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1330,7 +1330,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
         <v>34</v>
@@ -1341,7 +1341,7 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
@@ -1353,7 +1353,7 @@
         <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
         <v>47</v>
@@ -1364,7 +1364,7 @@
         <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -1376,7 +1376,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -1387,7 +1387,7 @@
         <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1396,7 +1396,7 @@
         <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
@@ -1407,7 +1407,7 @@
         <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
@@ -1419,7 +1419,7 @@
         <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -1474,7 +1474,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
@@ -1491,7 +1491,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
         <v>55</v>
@@ -1505,7 +1505,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -1522,7 +1522,7 @@
         <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -1539,7 +1539,7 @@
         <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
@@ -1556,16 +1556,16 @@
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>68</v>
       </c>
       <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
         <v>77</v>
-      </c>
-      <c r="E7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1573,7 +1573,7 @@
         <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>68</v>
@@ -1590,7 +1590,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
         <v>66</v>
@@ -1604,7 +1604,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
         <v>68</v>
@@ -1621,7 +1621,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
